--- a/biology/Botanique/Ail_à_tête_ronde/Ail_à_tête_ronde.xlsx
+++ b/biology/Botanique/Ail_à_tête_ronde/Ail_à_tête_ronde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_t%C3%AAte_ronde</t>
+          <t>Ail_à_tête_ronde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium sphaerocephalon
 L’ail à tête ronde (Allium sphaerocephalon) est une espèce de plantes herbacées vivaces de la famille des Amaryllidaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_t%C3%AAte_ronde</t>
+          <t>Ail_à_tête_ronde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est une plante grêle. Les fleurs en cloches sont rassemblées en une ombelle dense, sphérique sous laquelle persiste généralement le spathe en deux parties. Les étamines des fleurs sont très protubérantes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_t%C3%AAte_ronde</t>
+          <t>Ail_à_tête_ronde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ail à tête ronde est une plante des prés et des zones rocailleuses, commune surtout dans le sud de l'Europe.
 Elle est aussi cultivée.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_t%C3%AAte_ronde</t>
+          <t>Ail_à_tête_ronde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : ombelle simple
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_t%C3%AAte_ronde</t>
+          <t>Ail_à_tête_ronde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +634,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium sphaerocephalon L. subsp. sphaerocephalon des pelouses vivaces des lithosols compacts (dalles) et mobiles (sables), médioeuropéennes à méditerranéennes, basophiles
-var. pygmaeum P. Fourn. est une plante naine à petites fleurs présente localement en Savoie[1]
+var. pygmaeum P. Fourn. est une plante naine à petites fleurs présente localement en Savoie
 Allium scorodoprasum L. subsp. scorodoprasum des friches vivaces rudérales pionnières, mésoxérophiles, subméditerranéennes
 Données d'après: Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004. 
 </t>
